--- a/books.xlsx
+++ b/books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64328D2-67C4-4018-9732-1EE325221167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8788592-0B8A-4561-8B39-09503619272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="45" windowWidth="14250" windowHeight="15555" xr2:uid="{F4AC1DE8-3E85-485A-860D-3EA9827005E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4AC1DE8-3E85-485A-860D-3EA9827005E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -28847,7 +28847,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
